--- a/wtt/report/JBK/jbk_cfd_201012_v2.xlsx
+++ b/wtt/report/JBK/jbk_cfd_201012_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t xml:space="preserve">Deck</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment</t>
   </si>
   <si>
     <t xml:space="preserve">Tower</t>
@@ -260,13 +263,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L24"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -318,14 +321,35 @@
       <c r="D8" s="4" t="n">
         <v>0.0537</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="n">
+        <f aca="false">B8/B9-1</f>
+        <v>0.260272415394439</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">C8/C9-1</f>
+        <v>-1.21315789473684</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">D8/D9-1</f>
+        <v>0.154838709677419</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.0465</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -335,7 +359,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,10 +386,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -420,21 +444,21 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
